--- a/doc/04_画面遷移図_F2.xlsx
+++ b/doc/04_画面遷移図_F2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\チーム開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7663D2D-002D-4B0D-A886-7DE91072BB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CBDEBD-7C68-407B-8AC7-EE0952AE062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,8 +513,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>about</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>エクストラ画面</a:t>
+            <a:t>画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1710,9 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
